--- a/Assets/Project structure/MonoBehaviour scripts.xlsx
+++ b/Assets/Project structure/MonoBehaviour scripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>GetTextByLanguage</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Gets object player is looking on, if it has script "TextOnWatching" and distance is small, shows text in the center of screen. Attaches to player</t>
+  </si>
+  <si>
+    <t>MenuController</t>
+  </si>
+  <si>
+    <t>Controls stop menu in game</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C14"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -602,6 +608,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Project structure/MonoBehaviour scripts.xlsx
+++ b/Assets/Project structure/MonoBehaviour scripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>GetTextByLanguage</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>Controls stop menu in game</t>
+  </si>
+  <si>
+    <t>WindowsManager</t>
+  </si>
+  <si>
+    <t>Controls windows in game</t>
+  </si>
+  <si>
+    <t>Controls menu in game</t>
+  </si>
+  <si>
+    <t>EnvironmentController</t>
+  </si>
+  <si>
+    <t>Contains info such as time, and methods, such as save method</t>
   </si>
 </sst>
 </file>
@@ -190,7 +205,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -208,7 +223,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +261,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -318,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,15 +507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="124" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,6 +631,30 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Project structure/MonoBehaviour scripts.xlsx
+++ b/Assets/Project structure/MonoBehaviour scripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>GetTextByLanguage</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t>Contains info such as time, and methods, such as save method</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>List of objects and their Ids</t>
+  </si>
+  <si>
+    <t>PlayerInventory</t>
+  </si>
+  <si>
+    <t>Inventory of player, inherits from class Inventory</t>
+  </si>
+  <si>
+    <t>ItemsManager</t>
   </si>
 </sst>
 </file>
@@ -507,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -655,6 +670,27 @@
         <v>32</v>
       </c>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Project structure/MonoBehaviour scripts.xlsx
+++ b/Assets/Project structure/MonoBehaviour scripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>GetTextByLanguage</t>
   </si>
@@ -115,19 +115,16 @@
     <t>Contains info such as time, and methods, such as save method</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>List of objects and their Ids</t>
-  </si>
-  <si>
     <t>PlayerInventory</t>
   </si>
   <si>
-    <t>Inventory of player, inherits from class Inventory</t>
-  </si>
-  <si>
     <t>ItemsManager</t>
+  </si>
+  <si>
+    <t>InventoryCell</t>
+  </si>
+  <si>
+    <t>Inventory of player</t>
   </si>
 </sst>
 </file>
@@ -220,7 +217,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -238,7 +235,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,7 +273,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -348,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -675,20 +672,17 @@
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Project structure/MonoBehaviour scripts.xlsx
+++ b/Assets/Project structure/MonoBehaviour scripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>GetTextByLanguage</t>
   </si>
@@ -125,6 +125,24 @@
   </si>
   <si>
     <t>Inventory of player</t>
+  </si>
+  <si>
+    <t>HomeScript</t>
+  </si>
+  <si>
+    <t>Has door, point inside and outside. When player clicks on the door, script moves it inside or outside, depending on where is player now.</t>
+  </si>
+  <si>
+    <t>Database with all types of items. Their Ids, Sprites, Types.</t>
+  </si>
+  <si>
+    <t>Script attaches to inventory cell. Has Image, Text and Button, sets them and reacts on click</t>
+  </si>
+  <si>
+    <t>DoorScript</t>
+  </si>
+  <si>
+    <t>Attaches to door</t>
   </si>
 </sst>
 </file>
@@ -519,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C21"/>
+  <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -679,10 +697,32 @@
       <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Project structure/MonoBehaviour scripts.xlsx
+++ b/Assets/Project structure/MonoBehaviour scripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>GetTextByLanguage</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Attaches to door</t>
+  </si>
+  <si>
+    <t>WaitingWindowController</t>
   </si>
 </sst>
 </file>
@@ -537,15 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="124" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -725,6 +728,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Project structure/MonoBehaviour scripts.xlsx
+++ b/Assets/Project structure/MonoBehaviour scripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>GetTextByLanguage</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>WaitingWindowController</t>
+  </si>
+  <si>
+    <t>CollectableObject</t>
+  </si>
+  <si>
+    <t>Adds some item to players inventory by click on it</t>
+  </si>
+  <si>
+    <t>TreeCollection</t>
+  </si>
+  <si>
+    <t>Inherits from CollectableObject, collection for tree</t>
   </si>
 </sst>
 </file>
@@ -238,7 +250,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -256,7 +268,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -540,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C24"/>
+  <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -733,6 +745,22 @@
         <v>43</v>
       </c>
     </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
